--- a/AnaliseSintatica_FristFollow_LL1.xlsx
+++ b/AnaliseSintatica_FristFollow_LL1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samuel/Desktop/Development/Comp/AL/TP_Compilador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\TP_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139B85C-9295-D446-B03E-B4AF610AEC2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB67F34-D6BF-48FD-9C5C-D1E6E7E39039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24940" windowHeight="14500" xr2:uid="{7C7B4F71-2BDE-43C8-8512-DFCF1E99F3A0}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24945" windowHeight="14505" xr2:uid="{7C7B4F71-2BDE-43C8-8512-DFCF1E99F3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analise Sintatica" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
   <si>
     <t>FIRST</t>
   </si>
@@ -90,15 +90,9 @@
     <t>read-stmt</t>
   </si>
   <si>
-    <t>scan</t>
-  </si>
-  <si>
     <t>write-stmt</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
     <t>expression</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>LL(1)</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>literal</t>
   </si>
   <si>
-    <t>then</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -177,12 +165,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -201,69 +183,10 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>!=</t>
-  </si>
-  <si>
     <t>==</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">program-&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve">program </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">decl-list stmt-list </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>end</t>
-    </r>
-  </si>
-  <si>
-    <t>decl-list -&gt; decl decl-list</t>
-  </si>
-  <si>
-    <t>decl-list -&gt; λ</t>
-  </si>
-  <si>
-    <t>decl  -&gt; type ident-list ";"</t>
-  </si>
-  <si>
     <t>ident-list -&gt; identifier ident-list'</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">type  -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>int</t>
-    </r>
   </si>
   <si>
     <r>
@@ -280,30 +203,9 @@
     </r>
   </si>
   <si>
-    <t>stmt-list -&gt; stmt stmt-list'</t>
-  </si>
-  <si>
-    <t>stmt  -&gt; assign-stmt ";"</t>
-  </si>
-  <si>
-    <t>stmt  -&gt; if-stmt</t>
-  </si>
-  <si>
-    <t>stmt  -&gt; while-stmt</t>
-  </si>
-  <si>
-    <t>stmt  -&gt; read-stmt ";"</t>
-  </si>
-  <si>
     <t>stmt  -&gt; write-stmt ";"</t>
   </si>
   <si>
-    <t>assign-stmt -&gt; identifier "=" simple_expr</t>
-  </si>
-  <si>
-    <t>if-stmt -&gt; if  expression  then  stmt-list  if-stmt' end</t>
-  </si>
-  <si>
     <t>while-stmt -&gt; do stmt-list stmt-sufix</t>
   </si>
   <si>
@@ -358,9 +260,6 @@
     <t xml:space="preserve">relop -&gt; "&lt;=" </t>
   </si>
   <si>
-    <t>relop -&gt; "!="</t>
-  </si>
-  <si>
     <t>relop -&gt; "=="</t>
   </si>
   <si>
@@ -383,9 +282,6 @@
   </si>
   <si>
     <t>constant  -&gt; integer_const</t>
-  </si>
-  <si>
-    <t>constant  -&gt; literal</t>
   </si>
   <si>
     <t>do-stmt</t>
@@ -528,12 +424,178 @@
   <si>
     <t xml:space="preserve">[A-Za-z] </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">program-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">init  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">decl-list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stmt-list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stop</t>
+    </r>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">type  -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>addop -&gt; or</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>relop -&gt; "&lt;&gt;"</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>decl-list -&gt; decl ";" { decl ";"}</t>
+  </si>
+  <si>
+    <t>decl-&gt;ident-list is type</t>
+  </si>
+  <si>
+    <r>
+      <t>type-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real</t>
+    </r>
+  </si>
+  <si>
+    <t>stmt-list -&gt; stmt ";" { stmt ";" }</t>
+  </si>
+  <si>
+    <t>stmt-list -&gt;stmt ";" { stmt ";" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt  -&gt;if-stmt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt  -&gt; assign-stmt </t>
+  </si>
+  <si>
+    <t>stmt  -&gt;  do-stmt</t>
+  </si>
+  <si>
+    <t>stmt  -&gt; read-stmt</t>
+  </si>
+  <si>
+    <t>assign-stmt -&gt;identifier ":=" simple_expr</t>
+  </si>
+  <si>
+    <t>if-stmt -&gt; if "(" condition ")" begin stmt-list end
+| if "(" condition ")" begin stmt-list end else
+begin stmt-list end</t>
+  </si>
+  <si>
+    <t>condition-&gt;expression</t>
+  </si>
+  <si>
+    <t>condition -&gt; " “ " caractere* " ” "</t>
+  </si>
+  <si>
+    <t>condition-&gt;(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition-&gt; - </t>
+  </si>
+  <si>
+    <t>condition-&gt;not</t>
+  </si>
+  <si>
+    <t>condition-&gt; expresion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +619,21 @@
       <color theme="1"/>
       <name val="Calibri (Corpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -566,7 +643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -604,17 +681,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,26 +696,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -964,55 +1032,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4E0F38-9771-4583-BBC7-5B65B3C8BAF8}">
-  <dimension ref="B2:AM35"/>
+  <dimension ref="B2:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" customWidth="1"/>
-    <col min="24" max="25" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.33203125" customWidth="1"/>
-    <col min="35" max="38" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="35.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="27" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" customWidth="1"/>
+    <col min="37" max="40" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:39">
+    <row r="2" spans="2:41">
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1022,111 +1093,115 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="X3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="Y3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="Z3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="AA3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AB3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AC3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AD3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AE3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AH3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AI3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AK3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AL3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AM3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AO3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:39">
+    <row r="4" spans="2:41">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1135,12 +1210,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1169,42 +1244,32 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-    </row>
-    <row r="5" spans="2:39">
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5" spans="2:41">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>110</v>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1230,30 +1295,30 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-    </row>
-    <row r="6" spans="2:39">
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="2:41">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>110</v>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1281,28 +1346,30 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-    </row>
-    <row r="7" spans="2:39">
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="2:41">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>111</v>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1330,29 +1397,31 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-    </row>
-    <row r="8" spans="2:39">
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+    </row>
+    <row r="8" spans="2:41">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>108</v>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1360,7 +1429,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1381,40 +1452,42 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-    </row>
-    <row r="9" spans="2:39">
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="2:41">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1438,40 +1511,42 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
-    </row>
-    <row r="10" spans="2:39">
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10" spans="2:41">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1495,28 +1570,30 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-    </row>
-    <row r="11" spans="2:39">
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11" spans="2:41">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1544,8 +1621,10 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
-    </row>
-    <row r="12" spans="2:39">
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12" spans="2:41" ht="45">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,20 +1632,20 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1593,24 +1672,34 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-    </row>
-    <row r="13" spans="2:39">
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+    <row r="13" spans="2:41">
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1618,10 +1707,14 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -1633,35 +1726,39 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
+      <c r="AI13" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-    </row>
-    <row r="14" spans="2:39">
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+    </row>
+    <row r="14" spans="2:41">
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1687,34 +1784,36 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="2:39">
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+    </row>
+    <row r="15" spans="2:41">
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -1736,13 +1835,15 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="2:39">
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+    </row>
+    <row r="16" spans="2:41">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1751,16 +1852,16 @@
         <v>20</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1780,37 +1881,41 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
+      <c r="AI16" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
-    </row>
-    <row r="17" spans="2:39">
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+    </row>
+    <row r="17" spans="2:41">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -1834,23 +1939,25 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="2:39">
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+    </row>
+    <row r="18" spans="2:41">
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1879,45 +1986,45 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="2:39">
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+    </row>
+    <row r="19" spans="2:41">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -1926,57 +2033,57 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="2:39">
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+    </row>
+    <row r="20" spans="2:41">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -1985,57 +2092,57 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="2:39">
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+    </row>
+    <row r="21" spans="2:41">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -2044,57 +2151,57 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="2:39">
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+    </row>
+    <row r="22" spans="2:41">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -2103,51 +2210,51 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="2:39">
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+    </row>
+    <row r="23" spans="2:41">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2161,34 +2268,36 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
+      <c r="AI23" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="2:39">
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24" spans="2:41">
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2200,52 +2309,54 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="X24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ24" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
       <c r="AK24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25" spans="2:41">
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AL24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="2:39">
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2256,23 +2367,25 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
@@ -2280,25 +2393,27 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="2:39">
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26" spans="2:41">
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2314,17 +2429,17 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -2333,37 +2448,37 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="2:39">
-      <c r="B27" s="1" t="s">
-        <v>32</v>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27" spans="2:41">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2384,93 +2499,95 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="2:39">
-      <c r="B28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39">
-      <c r="B29" s="10" t="s">
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28" spans="2:41">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:41">
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:41">
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="2:39">
-      <c r="B30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39">
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="31" spans="2:41">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41">
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39">
-      <c r="B32" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>126</v>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2478,5 +2595,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AnaliseSintatica_FristFollow_LL1.xlsx
+++ b/AnaliseSintatica_FristFollow_LL1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t xml:space="preserve">ANALISE DESCENDENTE</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
   </si>
   <si>
     <t xml:space="preserve">(</t>
@@ -616,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -669,19 +666,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -732,7 +716,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,10 +749,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,16 +761,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -814,16 +786,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AM35"/>
+  <dimension ref="B2:AL35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.42"/>
@@ -831,11 +803,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="52.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="49.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="49.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="47.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="41.26"/>
@@ -849,12 +821,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="29" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="50.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="50.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="35" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,7 +925,7 @@
       <c r="AF3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AH3" s="7" t="s">
@@ -963,34 +934,31 @@
       <c r="AI3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AK3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1023,20 +991,19 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
@@ -1044,7 +1011,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1072,20 +1039,19 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -1093,7 +1059,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1121,20 +1087,19 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
@@ -1142,7 +1107,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1170,29 +1135,28 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1202,7 +1166,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1223,20 +1187,19 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
@@ -1244,19 +1207,19 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1280,40 +1243,39 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1337,20 +1299,19 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
@@ -1358,7 +1319,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1386,20 +1347,19 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
@@ -1407,8 +1367,8 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="11" t="s">
-        <v>71</v>
+      <c r="M12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1435,32 +1395,31 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1469,13 +1428,13 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="12" t="s">
-        <v>77</v>
+      <c r="T13" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="12" t="s">
-        <v>77</v>
+      <c r="W13" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1486,28 +1445,27 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="AG13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
@@ -1517,7 +1475,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1543,20 +1501,19 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
@@ -1570,7 +1527,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1592,20 +1549,19 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -1616,7 +1572,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1635,28 +1591,27 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AG16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
@@ -1668,7 +1623,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1692,17 +1647,16 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1737,32 +1691,31 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1772,12 +1725,12 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -1788,40 +1741,39 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="AG19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>98</v>
+      <c r="I20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1830,13 +1782,13 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="12" t="s">
-        <v>98</v>
+      <c r="T20" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1847,40 +1799,39 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="AG20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>101</v>
+      <c r="I21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1890,12 +1841,12 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -1906,40 +1857,39 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="AG21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>103</v>
+      <c r="I22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="12" t="s">
-        <v>103</v>
+      <c r="L22" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1949,12 +1899,12 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -1965,40 +1915,39 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="12" t="s">
-        <v>106</v>
+      <c r="L23" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2020,28 +1969,27 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="AG23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
@@ -2061,45 +2009,45 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="15" t="s">
+      <c r="Y24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="AA24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
+      <c r="AI24" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ24" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AK24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AL24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM24" s="2"/>
+      <c r="AL24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
@@ -2116,18 +2064,18 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -2139,20 +2087,19 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
@@ -2177,13 +2124,13 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AE26" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="AE26" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -2192,28 +2139,27 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
@@ -2224,7 +2170,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2245,28 +2191,27 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,10 +2219,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,54 +2230,54 @@
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/AnaliseSintatica_FristFollow_LL1.xlsx
+++ b/AnaliseSintatica_FristFollow_LL1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t xml:space="preserve">ANALISE DESCENDENTE</t>
   </si>
@@ -435,6 +435,9 @@
     <t xml:space="preserve">[A-Za-z]{ [A-Za-z], [0-9] ,  '_' }, integer_const, literal, (, not, -</t>
   </si>
   <si>
+    <t xml:space="preserve">Writable → simple-expr</t>
+  </si>
+  <si>
     <t xml:space="preserve">expression</t>
   </si>
   <si>
@@ -613,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -666,6 +669,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,7 +725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,6 +774,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,13 +806,13 @@
   <dimension ref="B2:AL35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.42"/>
@@ -803,11 +820,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="52.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="49.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="41.26"/>
@@ -1658,13 +1675,21 @@
       <c r="D18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1672,10 +1697,14 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="W18" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -1685,7 +1714,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1694,7 +1725,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>72</v>
@@ -1703,19 +1734,19 @@
         <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1725,12 +1756,12 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -1742,7 +1773,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -1752,28 +1783,28 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1783,12 +1814,12 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1800,7 +1831,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -1810,28 +1841,28 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1841,12 +1872,12 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -1858,7 +1889,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
@@ -1868,28 +1899,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1899,12 +1930,12 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -1916,7 +1947,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
@@ -1926,28 +1957,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1970,7 +2001,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -1980,16 +2011,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
@@ -2009,14 +2040,14 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="12" t="s">
-        <v>108</v>
+      <c r="Y24" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -2026,28 +2057,28 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
@@ -2064,18 +2095,18 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -2090,16 +2121,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
@@ -2124,13 +2155,13 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -2142,24 +2173,24 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
@@ -2170,7 +2201,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2197,21 +2228,21 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,51 +2264,51 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/AnaliseSintatica_FristFollow_LL1.xlsx
+++ b/AnaliseSintatica_FristFollow_LL1.xlsx
@@ -250,7 +250,7 @@
     <t xml:space="preserve">is</t>
   </si>
   <si>
-    <t xml:space="preserve">ident-list -&gt; identifier ident-list'</t>
+    <t xml:space="preserve">ident-list -&gt; identifier {"," identifier}</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -616,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -669,12 +669,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -725,7 +719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -774,14 +768,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -806,10 +792,10 @@
   <dimension ref="B2:AL35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.31"/>
@@ -1680,10 +1666,10 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="K18" s="3"/>
@@ -1697,12 +1683,12 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="13" t="s">
+      <c r="W18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="X18" s="2"/>
@@ -1714,7 +1700,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="13" t="s">
+      <c r="AG18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="AH18" s="2"/>
@@ -2040,7 +2026,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="14" t="s">
+      <c r="Y24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="Z24" s="2" t="s">
